--- a/data/dictionary.xlsx
+++ b/data/dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sotop\Desktop\Aprendizaje_automatico\ejercicios\tareas\Tic_seguros\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223C9963-DE9E-409E-82DA-D866CB03E203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C524154-FD28-4F40-9C06-09D9CEC9D62D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="diccionario" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="353">
   <si>
     <t>MOSTYPE</t>
   </si>
@@ -1100,9 +1100,6 @@
   </si>
   <si>
     <t>cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1957,10 +1954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F90"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B91" sqref="B91"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3708,11 +3705,6 @@
       </c>
       <c r="F87" t="s">
         <v>352</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -4079,7 +4071,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
